--- a/biology/Écologie/Modèle_de_Verhulst/Modèle_de_Verhulst.xlsx
+++ b/biology/Écologie/Modèle_de_Verhulst/Modèle_de_Verhulst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mod%C3%A8le_de_Verhulst</t>
+          <t>Modèle_de_Verhulst</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En dynamique des populations, le modèle de Verhulst est un modèle de croissance proposé par Pierre François Verhulst vers 1840[1],[2]. Verhulst a proposé ce modèle en réponse au modèle de Malthus qui proposait  un taux d'accroissement constant sans frein conduisant à une croissance exponentielle de la population.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En dynamique des populations, le modèle de Verhulst est un modèle de croissance proposé par Pierre François Verhulst vers 1840,. Verhulst a proposé ce modèle en réponse au modèle de Malthus qui proposait  un taux d'accroissement constant sans frein conduisant à une croissance exponentielle de la population.
 Le modèle de Verhulst imagine que le taux de natalité et le taux de mortalité sont des fonctions affines respectivement décroissante et croissante de la taille de la population. Autrement dit, plus la taille de la population augmente, plus son taux de natalité diminue et son taux de mortalité augmente. Verhulst pose d'autre part que, lorsqu'une population est de petite taille, elle a tendance à croître.
 Le même modèle est utilisable pour des réactions autocatalytiques, dans lesquelles l'augmentation des individus touchés est proportionnelle à la fois au nombre d'individus déjà touchés et au nombre d'individus qui peuvent encore être touchés.
 Ce modèle conduit, en temps continu, à une fonction logistique ; et en temps discret à une suite logistique dont la particularité est d'être, dans certaines circonstances, chaotique.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mod%C3%A8le_de_Verhulst</t>
+          <t>Modèle_de_Verhulst</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Mise en place mathématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si on appelle :
 y la taille de la population ;
@@ -554,7 +568,7 @@
         )
     {\displaystyle {\frac {\mathrm {d} y}{\mathrm {d} t}}=y(a-by)}
  avec a et b deux réels positifs
-C'est le modèle proposé par Verhulst[3].
+C'est le modèle proposé par Verhulst.
 Puis, en posant K = a/b, l'équation devient alors :
                 d
               y
@@ -616,7 +630,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mod%C3%A8le_de_Verhulst</t>
+          <t>Modèle_de_Verhulst</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -634,7 +648,9 @@
           <t>Résolution en temps continu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La recherche des fonctions strictement positives définies sur 
         [
@@ -698,7 +714,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mod%C3%A8le_de_Verhulst</t>
+          <t>Modèle_de_Verhulst</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -716,7 +732,9 @@
           <t>Résolution en temps discret</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En temps discret, le modèle se transforme en 
           u
